--- a/biology/Médecine/École_du_service_de_santé_des_armées_de_Bordeaux/École_du_service_de_santé_des_armées_de_Bordeaux.xlsx
+++ b/biology/Médecine/École_du_service_de_santé_des_armées_de_Bordeaux/École_du_service_de_santé_des_armées_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'École du service de santé des armées de Bordeaux, appelée Santé Navale et autrefois École principale du service de santé de la Marine, était une Grande École militaire qui formait jusqu'en 2011, comme son homologue à Bron, l'École du service de santé des armées de Lyon-Bron, des médecins destinés à servir au sein du Ministère de la Défense. Les « navalais » étaient amenés à exercer dans les établissements propres du Service, notamment les Hôpitaux d'Instruction des Armées, les centres de recherches et les Écoles du Service de Santé des Armées mais aussi et bien sûr au sein des formations de l'Armée de Terre, Armée de l'Air, Marine Nationale et Gendarmerie Nationale.
 L'École a fermé le 1er juillet 2011. Au total, 9 150 élèves y ont été formés depuis 1890, dont 600 pharmaciens de 1890 à 1984 et 3 dentistes de 2002 à 2009.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insigne de l'école, rappelant la devise « Mari Transve Mare Hominibus Semper Prodesse » (« Sur mer et au-delà des mers, toujours au service des hommes »), porte au centre les armoiries de Bordeaux, l'ancre symbolisant la Marine et la rose des vents l'aventure coloniale. Le drapeau de l’École était jusqu’en 1998 un des 9 drapeaux de la Marine Nationale mais l’âge l’a rattrapé. Exposé jusqu'en 2011 dans la Salle du Souvenir, on pouvait y lire : « École Principale du Service de Santé de la Marine ».
 Le 14 juillet 1998, un nouveau drapeau labellé « École du Service de Santé des Armées - Bordeaux » défile sur les Champs-Élysées. C'est lui qui a été remis le 17 juin 2011 au directeur central du Service de santé des armées et replié, à l'occasion de la cérémonie de dissolution.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est par le décret du 1er octobre 1883 que le principe d'une « école militaire du service de santé » a été adopté, s'appuyant sur la prospérité rapide du foyer scientifique local, les ressources du port maritime ainsi que les relations avec les colonies et l'étranger[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est par le décret du 1er octobre 1883 que le principe d'une « école militaire du service de santé » a été adopté, s'appuyant sur la prospérité rapide du foyer scientifique local, les ressources du port maritime ainsi que les relations avec les colonies et l'étranger.
 C’est le 22 juillet 1890 qu’est créée à Bordeaux l’« École principale du service de santé de la Marine ». Il existait depuis le XVIIIe siècle trois écoles de formation des médecins et pharmaciens de la Marine, à Rochefort, Brest et Toulon, mais ces ports n’étaient pas des villes universitaires ; or pour exercer la médecine, le doctorat était devenu obligatoire et seules les facultés étaient habilitées à le délivrer.
 Après d’âpres discussions, Bordeaux fut choisie de préférence à Marseille et Montpellier. Les trois Écoles des ports assureront la préparation du concours d'admission à l'EPSSMC jusque dans les années 1960 où le concours sera post-bac.
 L’École put commencer à fonctionner dès la fin de 1890, car elle fut implantée non loin de la Faculté de Médecine, cours Saint-Jean (cours de la Marne après la guerre de 1914), dans les bâtiments annexes de l’hôpital psychiatrique transféré à Château Picon (aujourd'hui CH Charles Perrens) ; de nouveaux bâtiments sont ensuite construits en 1897. Les élèves sont internes pendant leurs études ; ensuite les jeunes docteurs en médecine ou en pharmacie font, à partir de 1905, un stage à l’École du Pharo de Marseille avant de partir outre-mer.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Un lien très fort avec Bordeaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Soyez également les bienvenus, Messieurs les Étudiants de la Marine. Vous trouverez toujours en nous des maîtres bienveillants. Nous savons que l'avenir vous réserve l'honneur de représenter dans les pays lointains la science française, si injustement dénigrée par des rivaux acharnés. Pour remplir dignement votre tâche, il faut que vous soyez plus que des médecins ordinaires. Il faut que, par la sûreté et l'étendue de vos connaissances, vous puissiez inspirer le respect et l'amour de la mère-patrie aux populations que vous irez visiter en émissaires de notre civilisation. Nous nous emploierons de notre mieux à vous préparer à cette noble mission ».
 Ces mots, prononcés lors de la séance de rentrée de 1890 par Albert Pitres, doyen de la toute jeune faculté de médecine de Bordeaux située à quelques centaines de mètres de l'École, illustrent bien le lien très fort qui existe entre l'École de Santé Navale et sa ville[non neutre].
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>L'œuvre coloniale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La guerre de 1914-18 interrompt ces douces années de la genèse. Les élèves rejoignent leurs Anciens dans leurs postes sur mer ou au sein des régiments des troupes coloniales et de fusiliers marins tandis que l'École accueille un hôpital. Au sortir du conflit, 76 Navalais manquent à l'appel, les survivants peuvent s'enorgueillir de 350 citations et 13 Légions d'Honneur.
 L’expansion reprend à partir de 1925 et l’Afrique est désormais la principale destination des jeunes médecins : en 1938, on compte 165 « médecins et pharmaciens militaires coloniaux » en A.O.F. et 86 en A.E.F. ; la plupart appartiennent aux troupes de marine et sont passés par l’École de Bordeaux. Ils organisent une lutte systématique contre les grandes endémies, la maladie du sommeil pour laquelle il faut traiter des centaines de milliers de malades en quelques décennies, l’onchocercose, la « cécité des rivières » détectée systématiquement par les « capitaines moustique », la peste à Madagascar, la lèpre à Bamako, la fièvre jaune à Dakar. Ils créent des Écoles de Médecine à Dakar et à Tananarive.
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +678,9 @@
           <t>Les menaces des années 1980</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1971, le gouvernement décida de réorganiser les services de santé militaires. Il fut créé une seule « École du Service de Santé des Armées », divisée en deux établissements situés à Bordeaux et à Lyon, avec des statuts et un fonctionnement identiques. Il fut ensuite question de transférer l’École du cours de la Marne à la périphérie de la ville, à Mérignac ; le projet, trop coûteux, fut abandonné en 1981. Plus grave fut à cette époque, M. Barre étant Premier Ministre, l’annonce de la disparition de l’École de Bordeaux et le maintien d’une seule école, celle de Lyon : les manifestations des Bordelais, très attachés à leur « Santé Navale » et l’intervention de Jacques Chaban-Delmas amenèrent le nouveau gouvernement à annuler cette décision en juillet 1982. L'École de Bordeaux put donc poursuivre sereinement sa mission de formation des jeunes médecins militaires.
 </t>
@@ -671,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -689,7 +711,9 @@
           <t>La fin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 25 juillet 2009, la nouvelle est officielle et fait la « Une » du grand quotidien régional Sud Ouest, l'École de Santé Navale fermera ses portes le 1er juillet 2011. En effet, elle fait partie des formations touchées par la grande réforme des Armées consécutive à la publication du Livre Blanc de la Défense Nationale et à la Réforme Générale des Politiques Publiques.
 Par conséquent, les plus jeunes promotions sont transférées sur l'ESSA de Lyon-Bron tandis que celles encore en cours au moment de l'annonce terminent leur cursus à Bordeaux.
@@ -708,7 +732,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -726,7 +750,9 @@
           <t>Le site de Bordeaux</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site de l'école de Bordeaux était un ancien asile d'aliénés dont elle a conservé certains bâtiments.
 L'entrée est située au 149 bis Cours de la Marne, sur le côté du bâtiment principal via le passage d'un poste de garde ou « aubette » dans le jargon traditionnel de la Marine. Cette entrée est sur l'emplacement de l'ancien tracé du Cours Barbey (avant l'extension de l'École en 1966). La route pour pénétrer dans l'École et plus particulièrement la cour d'honneur est, elle, à la place de « la porte du général », lieu de passage nocturne pour des générations de navalais.
@@ -749,7 +775,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -767,14 +793,16 @@
           <t>Citations à l'ordre de l'Armée</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Des navalais ont combattu dans le monde entier durant les conflits auxquels la France a participé tout au long du vingtième siècle.
 Pour récompenser le sacrifice et le dévouement de ces élèves, la République a cité à l'Ordre de l'Armée l'École de Santé Navale à trois reprises:
-En 1922, citation entraînant l'attribution de la Croix de Guerre 1914-1918. « A élevé dans le culte de la science et du devoir toutes les générations d'Officiers des Corps de Santé de la Marine et des Troupes Coloniales qui, au cours de la Grande Guerre, ont magnifiquement affirmé sur mer et sur terre, avec les plus solides qualités de leur profession, les plus hautes vertus militaires »[2].
-En 1951, citation entraînant l'attribution de la Croix de guerre 1939-1945. « École ayant acquis un grand prestige par la valeur technique, par le sens élevé du devoir et par l'héroïsme des Officiers des Corps de Santé de la Marine et des Troupes Coloniales elle a formés. Au service de la France et de l'Union Française, les élèves de l'École de Bordeaux ont accompli leur devoir sur les fronts de la guerre 1939-45, au prix de lourds sacrifices, avec une foi ardente et une totale abnégation »[3].
-En 1955, citation entraînant l'attribution de la croix de guerre TOE. « Héritière du long passé de gloire des Écoles de médecine navale de nos ports, l'École Principale du Service de Santé de la Marine a formé les Officiers du Corps de Santé de la Marine et des Troupes Coloniales qui, par leur science, par leur courage et par leur admirable esprit de sacrifice sur les Théâtres d'Opérations Extérieures, ont pris place parmi les meilleurs artisans de la grandeur française, méritant ainsi la reconnaissance du Pays. »[4]
-De plus, en 2004, en souvenir du dévouement et du sacrifice des élèves durant le conflit algérien, le drapeau reçoit l'inscription « AFN 1952-1962 »[5].
+En 1922, citation entraînant l'attribution de la Croix de Guerre 1914-1918. « A élevé dans le culte de la science et du devoir toutes les générations d'Officiers des Corps de Santé de la Marine et des Troupes Coloniales qui, au cours de la Grande Guerre, ont magnifiquement affirmé sur mer et sur terre, avec les plus solides qualités de leur profession, les plus hautes vertus militaires ».
+En 1951, citation entraînant l'attribution de la Croix de guerre 1939-1945. « École ayant acquis un grand prestige par la valeur technique, par le sens élevé du devoir et par l'héroïsme des Officiers des Corps de Santé de la Marine et des Troupes Coloniales elle a formés. Au service de la France et de l'Union Française, les élèves de l'École de Bordeaux ont accompli leur devoir sur les fronts de la guerre 1939-45, au prix de lourds sacrifices, avec une foi ardente et une totale abnégation ».
+En 1955, citation entraînant l'attribution de la croix de guerre TOE. « Héritière du long passé de gloire des Écoles de médecine navale de nos ports, l'École Principale du Service de Santé de la Marine a formé les Officiers du Corps de Santé de la Marine et des Troupes Coloniales qui, par leur science, par leur courage et par leur admirable esprit de sacrifice sur les Théâtres d'Opérations Extérieures, ont pris place parmi les meilleurs artisans de la grandeur française, méritant ainsi la reconnaissance du Pays. »
+De plus, en 2004, en souvenir du dévouement et du sacrifice des élèves durant le conflit algérien, le drapeau reçoit l'inscription « AFN 1952-1962 ».
 Près de 300 Navalais ont donné leur vie pour la France, tués à l'ennemi, décédés des suites de leurs blessures ou victimes du devoir.
 </t>
         </is>
@@ -786,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -806,7 +834,13 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Promotions de l'École Principale du Service de Santé de la Marine et des Colonies
+          <t>Promotions de l'École Principale du Service de Santé de la Marine et des Colonies</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des promotions de l'École Principale du Service de Santé de la Marine et des Colonies
 1934 : Baron Dominique Larrey
 1935 :	Alexandre Le Dantec
@@ -843,7 +877,43 @@
 1968 :	Médecin principal de la Marine Paul Duguet
 1969 :	Médecin lieutenant des T.D.M. René Duris
 1970 :	Médecin de 2e classe Michel de Larre de la Dorie et médecin de 1re classe Guy Garcia
-Promotions de l'École du Service de Santé des Armées de Bordeaux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Promotions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Promotions de l'École du Service de Santé des Armées de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des promotions de l'École du Service de Santé des Armées de Bordeaux
 1971 :	Médecin général inspecteur Raymond Debenedetti
 1972 :	Médecin colonel des T.D.M. Eugène Jamot
@@ -887,31 +957,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Grands anciens</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>L'École de Santé Navale a vu éclore en son sein de nombreux talents exceptionnels. Parmi eux, certains ont marqué de manière durable l'Histoire de la Médecine française, voire l'Histoire tout court.
 Louis Tribondeau, inventeur avec Jean Bergonié de la loi fondamentale qui est à l'origine de la radiothérapie, arme majeure dans la lutte contre le cancer. Promotion 1891.
@@ -931,16 +1003,16 @@
 Henri Laborit, chirurgien de la Marine, un des fondateurs de l'anesthésie moderne. Mettant en lumière les propriétés de la chlorpromazine, invente les cocktails lytiques, puis les neuroleptiques. Prix Albert Lasker. Promotion 1934.
 Dominique Dormont, expert international des agents transmissibles non conventionnels et notamment du prion. Promotion 1966.
 Pierre Richet, Médecin-Chef de la 2e Division Blindée du Général Leclerc, fondateur et premier secrétaire général de l'Organisation de coordination et de coopération pour la lutte contre les grandes endémies (O.C.E.A.C.). Promotion 1925.
-Léon Pales (1905-1988), chirurgien, anthropologue, paléopathologiste de renom, sous-directeur du musée de l’Homme, directeur de recherches au CNRS[6] ;
+Léon Pales (1905-1988), chirurgien, anthropologue, paléopathologiste de renom, sous-directeur du musée de l’Homme, directeur de recherches au CNRS ;
 Marcel Autret, Pharmacien, spécialiste de la nutrition, Directeur de la division de la Nutrition et des Politiques alimentaires de la FAO de 1960 à 1971, Expert-conseil auprès du FAO, PAM ou encore de l'UNICEF. Promotion 1928.
 René Labusquière, Secrétaire général de l’O.C.E.A.C., remarquable organisateur de la lutte contre les grandes endémies et plus particulièrement la lèpre. Son nom a été donné à l'Institut de médecine tropicale de l'Université Bordeaux 2. Promotion 1939.
 Claude Gateff, fondateur de l'école d'épidémiologie et de santé publique moderne du Service de santé des armées. Promotion 1953.
 Claude Lagoutte, pharmacien, et officier, puis artiste peintre. Promotion 1957.
-Claude Chupin (1928-2011), médecin, puis radiologue, et photographe ; médaille d'Or des Hôpitaux de Bordeaux, puis médecin de la Sécurité Sociale des Mines et omnipraticien libéral, militant en faveur de la santé au travail[7] et contre les dangers de l'amiante[8] dans ses emplois tant industriels que domestiques ; médecin Sentinelle engagé[9]  avec la Fondation Henri Pézerat[9], puis codécouvreur de l'affaire Adisséo - l'usine chimique qui fabriquait aussi des cancers dès 1991, et cofondateur de l'AMC avec Gérard Barrat en 2003. Croix de Guerre 1955 et Major de la promotion 1956 avec le Général Claude Vaillant. Médaille d'or pro Piis Meritis et Commandeur pro Merito Melitensi en 1989 et 1993 dans l'ordre militaire hospitalier (OSM).
+Claude Chupin (1928-2011), médecin, puis radiologue, et photographe ; médaille d'Or des Hôpitaux de Bordeaux, puis médecin de la Sécurité Sociale des Mines et omnipraticien libéral, militant en faveur de la santé au travail et contre les dangers de l'amiante dans ses emplois tant industriels que domestiques ; médecin Sentinelle engagé  avec la Fondation Henri Pézerat, puis codécouvreur de l'affaire Adisséo - l'usine chimique qui fabriquait aussi des cancers dès 1991, et cofondateur de l'AMC avec Gérard Barrat en 2003. Croix de Guerre 1955 et Major de la promotion 1956 avec le Général Claude Vaillant. Médaille d'or pro Piis Meritis et Commandeur pro Merito Melitensi en 1989 et 1993 dans l'ordre militaire hospitalier (OSM).
 Jules Emily, médecin de la Mission Marchand en 1898, légendaire mission "Congo-Nil". Promotion 1890.
 Charles Ragiot, chercheur en médecine tropicale. Promotion 1922.
 Éric Dumont, écrivain, haut fonctionnaire, organise la mise en place du GIP Esther à l'initiative de Bernard Kouchner pour la prise en charge de porteurs du VIH dans 18 pays en Afrique et en Asie. Promotion 1979.
-Joseph Briand[10], médecin colonial en Afrique et en Asie de 1898 à 1918. Participe aux Dardanelles en 1915, chef du service de santé du 54e colonial. Promotion 1894.
+Joseph Briand, médecin colonial en Afrique et en Asie de 1898 à 1918. Participe aux Dardanelles en 1915, chef du service de santé du 54e colonial. Promotion 1894.
 Guy Chauliac, Compagnon de la Libération, médecin-militaire des forces françaises libres, promotion 1932-1936.
 Jean-Frédéric Vernier, Compagnon de la Libération, médecin-militaire des forces françaises libres, promotion 1924-1928.
 Jean-Baptiste Ouédraogo, né en 1942, médecin militaire et homme d'État burkinabé, ancien chef d'État de la République de Haute-Volta (Burkina Faso).
@@ -950,39 +1022,81 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Directeurs et commandants de l'école</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Directeurs de l'École principale du Service de Santé de la Marine
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Directeurs de l'École principale du Service de Santé de la Marine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des directeurs de l'École principale du Service de Santé de la Marine
 1890 : Médecin en Chef Brassac
 1892 : Médecin Général Gues
 1894 : Médecin Général Bourru
 1902 : Médecin Général Talairach
-Directeurs de l'École principale du Service de Santé de la Marine et des Colonies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Directeurs et commandants de l'école</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Directeurs de l'École principale du Service de Santé de la Marine et des Colonies</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des directeurs de l'École principale du Service de Santé de la Marine et des Colonies
 1903 : Médecin Général Bertrand
 1906 : Médecin Général Jacquemin
@@ -1003,7 +1117,43 @@
 1961 : Médecin Général Hebraud
 1966 : Médecin Général Fuchs
 1968 : Médecin Général Nun
-Commandants de l'École du Service de Santé des Armées de Bordeaux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>École_du_service_de_santé_des_armées_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_du_service_de_sant%C3%A9_des_arm%C3%A9es_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Directeurs et commandants de l'école</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Commandants de l'École du Service de Santé des Armées de Bordeaux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des commandants de l'École du Service de Santé des Armées de Bordeaux
 1971 : Médecin Général Curet
 1975 : Médecin Général Inspecteur Curet
